--- a/data/regression_name_list1069.xlsx
+++ b/data/regression_name_list1069.xlsx
@@ -655,7 +655,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5429,7 +5429,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5677,7 +5677,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5739,7 +5739,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
